--- a/example/Case Study/Case Study.xlsx
+++ b/example/Case Study/Case Study.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinm\Documents\Git\windea-tool\example\Case Study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F382450-D8B4-4080-B263-60090727CA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Case Study" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
-    <t>Vestas V126-3.45)</t>
+    <t>Vestas V126-3.45</t>
   </si>
   <si>
     <t>v</t>
@@ -58,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,23 +112,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,16 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="B2">
         <v>0</v>
       </c>
@@ -532,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.2250000000000001</v>
+        <v>1.225</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -550,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6.3116612304156048</v>
+        <v>6.185428005807293</v>
       </c>
       <c r="L2">
         <v>1775.479079957955</v>
@@ -571,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>9.1727951722918792</v>
+        <v>8.989339268846042</v>
       </c>
       <c r="T2">
-        <v>1261.8779999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1261.878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3">
         <v>1</v>
       </c>
@@ -588,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.974405351583165E-2</v>
+        <v>0.07974405351583165</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -603,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -615,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="B4">
         <v>2</v>
       </c>
@@ -641,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>9.3049999999999994E-2</v>
+        <v>0.09304999999999999</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -653,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="B5">
         <v>3</v>
       </c>
@@ -664,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0.14257264633447139</v>
+        <v>0.1425726463344714</v>
       </c>
       <c r="H5">
         <v>35</v>
       </c>
       <c r="I5">
-        <v>4.3712773366148927E-2</v>
+        <v>0.04283851789882595</v>
       </c>
       <c r="J5">
-        <v>6.9257160310662877E-3</v>
+        <v>0.006925716031066288</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -685,13 +633,13 @@
         <v>35</v>
       </c>
       <c r="Q5">
-        <v>3.4415849999999998E-2</v>
+        <v>0.033727533</v>
       </c>
       <c r="R5">
-        <v>3.7519479453721402E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.003751947945372139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6">
         <v>4</v>
       </c>
@@ -708,10 +656,10 @@
         <v>184</v>
       </c>
       <c r="I6">
-        <v>0.23040308005702459</v>
+        <v>0.2257950184558841</v>
       </c>
       <c r="J6">
-        <v>3.6504348323817312E-2</v>
+        <v>0.03650434832381731</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -723,13 +671,13 @@
         <v>184</v>
       </c>
       <c r="Q6">
-        <v>0.181976736</v>
+        <v>0.17833720128</v>
       </c>
       <c r="R6">
-        <v>1.983874408857338E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.01983874408857338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7">
         <v>5</v>
       </c>
@@ -740,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>0.12962793620741231</v>
+        <v>0.1296279362074123</v>
       </c>
       <c r="H7">
         <v>404</v>
       </c>
       <c r="I7">
-        <v>0.45875845135548049</v>
+        <v>0.4495832823283709</v>
       </c>
       <c r="J7">
-        <v>7.268426403254101E-2</v>
+        <v>0.072684264032541</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -761,13 +709,13 @@
         <v>404</v>
       </c>
       <c r="Q7">
-        <v>0.39955761600000012</v>
+        <v>0.39156646368</v>
       </c>
       <c r="R7">
-        <v>4.3558981585780698E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.0435589815857807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8">
         <v>6</v>
       </c>
@@ -778,34 +726,34 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>0.10858307291426959</v>
+        <v>0.1085830729142696</v>
       </c>
       <c r="H8">
         <v>725</v>
       </c>
       <c r="I8">
-        <v>0.68961109607852644</v>
+        <v>0.6758188741569559</v>
       </c>
       <c r="J8">
-        <v>0.1092598399856004</v>
+        <v>0.1092598399856003</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8">
-        <v>0.10829999999999999</v>
+        <v>0.1083</v>
       </c>
       <c r="P8">
         <v>725</v>
       </c>
       <c r="Q8">
-        <v>0.68781329999999996</v>
+        <v>0.6740570339999999</v>
       </c>
       <c r="R8">
-        <v>7.4984046528986825E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.07498404652898683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9">
         <v>7</v>
       </c>
@@ -816,34 +764,34 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>8.5010244548559141E-2</v>
+        <v>0.08501024454855914</v>
       </c>
       <c r="H9">
         <v>1172</v>
       </c>
       <c r="I9">
-        <v>0.87277637791158313</v>
+        <v>0.8553208503533515</v>
       </c>
       <c r="J9">
-        <v>0.13827997828934699</v>
+        <v>0.138279978289347</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9">
-        <v>9.9449999999999997E-2</v>
+        <v>0.09945</v>
       </c>
       <c r="P9">
         <v>1172</v>
       </c>
       <c r="Q9">
-        <v>1.0210253039999999</v>
+        <v>1.00060479792</v>
       </c>
       <c r="R9">
         <v>0.1113101606241242</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10">
         <v>8</v>
       </c>
@@ -854,34 +802,34 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>6.2668180521188221E-2</v>
+        <v>0.06266818052118822</v>
       </c>
       <c r="H10">
         <v>1760</v>
       </c>
       <c r="I10">
-        <v>0.96619294000347156</v>
+        <v>0.9468690812034021</v>
       </c>
       <c r="J10">
-        <v>0.1530806082156996</v>
+        <v>0.1530806082156995</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10">
-        <v>8.9849999999999985E-2</v>
+        <v>0.08984999999999999</v>
       </c>
       <c r="P10">
         <v>1760</v>
       </c>
       <c r="Q10">
-        <v>1.38527136</v>
+        <v>1.3575659328</v>
       </c>
       <c r="R10">
         <v>0.1510195457306697</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="B11">
         <v>9</v>
       </c>
@@ -892,34 +840,34 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>4.3720959279033182E-2</v>
+        <v>0.04372095927903318</v>
       </c>
       <c r="H11">
         <v>2482</v>
       </c>
       <c r="I11">
-        <v>0.95059508735170872</v>
+        <v>0.9315831856046746</v>
       </c>
       <c r="J11">
-        <v>0.15060933289176459</v>
+        <v>0.1506093328917646</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11">
-        <v>7.5149999999999995E-2</v>
+        <v>0.07514999999999999</v>
       </c>
       <c r="P11">
         <v>2482</v>
       </c>
       <c r="Q11">
-        <v>1.6339353480000001</v>
+        <v>1.60125664104</v>
       </c>
       <c r="R11">
-        <v>0.17812840222744791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.1781284022274479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12">
         <v>10</v>
       </c>
@@ -930,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>2.8973042099572251E-2</v>
+        <v>0.02897304209957225</v>
       </c>
       <c r="H12">
         <v>3187</v>
       </c>
       <c r="I12">
-        <v>0.80887286610091003</v>
+        <v>0.7926954087788918</v>
       </c>
       <c r="J12">
         <v>0.1281553043758098</v>
@@ -945,19 +893,19 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <v>5.2599999999999987E-2</v>
+        <v>0.05259999999999999</v>
       </c>
       <c r="P12">
         <v>3187</v>
       </c>
       <c r="Q12">
-        <v>1.468493112</v>
+        <v>1.43912324976</v>
       </c>
       <c r="R12">
-        <v>0.16009221664905959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.1600922166490596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13">
         <v>11</v>
       </c>
@@ -968,34 +916,34 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>1.8288186740749241E-2</v>
+        <v>0.01828818674074924</v>
       </c>
       <c r="H13">
         <v>3433</v>
       </c>
       <c r="I13">
-        <v>0.54998210290949101</v>
+        <v>0.5389824608513012</v>
       </c>
       <c r="J13">
-        <v>8.7137456024913476E-2</v>
+        <v>0.08713745602491346</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
       <c r="O13">
-        <v>3.2099999999999997E-2</v>
+        <v>0.0321</v>
       </c>
       <c r="P13">
         <v>3433</v>
       </c>
       <c r="Q13">
-        <v>0.96534586799999988</v>
+        <v>0.9460389506399999</v>
       </c>
       <c r="R13">
         <v>0.1052400985597068</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1006,34 +954,34 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>1.1019737606987349E-2</v>
+        <v>0.01101973760698735</v>
       </c>
       <c r="H14">
         <v>3450</v>
       </c>
       <c r="I14">
-        <v>0.33303850995837181</v>
+        <v>0.3263777397592043</v>
       </c>
       <c r="J14">
-        <v>5.2765587030158483E-2</v>
+        <v>0.05276558703015848</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
       <c r="O14">
-        <v>1.9699999999999999E-2</v>
+        <v>0.0197</v>
       </c>
       <c r="P14">
         <v>3450</v>
       </c>
       <c r="Q14">
-        <v>0.59537340000000005</v>
+        <v>0.5834659320000001</v>
       </c>
       <c r="R14">
-        <v>6.4906431334958326E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.06490643133495833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1044,34 +992,34 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <v>6.3498945417285483E-3</v>
+        <v>0.006349894541728548</v>
       </c>
       <c r="H15">
         <v>3450</v>
       </c>
       <c r="I15">
-        <v>0.1919065128401202</v>
+        <v>0.1880683825833178</v>
       </c>
       <c r="J15">
-        <v>3.040507179240412E-2</v>
+        <v>0.03040507179240412</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
       <c r="O15">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="P15">
         <v>3450</v>
       </c>
       <c r="Q15">
-        <v>0.36266399999999999</v>
+        <v>0.35541072</v>
       </c>
       <c r="R15">
-        <v>3.9536912488299478E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.03953691248829948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1082,34 +1030,34 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>3.5042503874133301E-3</v>
+        <v>0.00350425038741333</v>
       </c>
       <c r="H16">
         <v>3450</v>
       </c>
       <c r="I16">
-        <v>0.10590545520840559</v>
+        <v>0.1037873461042375</v>
       </c>
       <c r="J16">
-        <v>1.6779331358605269E-2</v>
+        <v>0.01677933135860527</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
       <c r="O16">
-        <v>6.7499999999999999E-3</v>
+        <v>0.00675</v>
       </c>
       <c r="P16">
         <v>3450</v>
       </c>
       <c r="Q16">
-        <v>0.2039985</v>
+        <v>0.19991853</v>
       </c>
       <c r="R16">
-        <v>2.2239513274668461E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.02223951327466846</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1120,34 +1068,34 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <v>1.854372408949793E-3</v>
+        <v>0.001854372408949793</v>
       </c>
       <c r="H17">
         <v>3450</v>
       </c>
       <c r="I17">
-        <v>5.604284294328065E-2</v>
+        <v>0.05492198608441504</v>
       </c>
       <c r="J17">
-        <v>8.8792539550780654E-3</v>
+        <v>0.008879253955078065</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
       <c r="O17">
-        <v>3.5999999999999999E-3</v>
+        <v>0.0036</v>
       </c>
       <c r="P17">
         <v>3450</v>
       </c>
       <c r="Q17">
-        <v>0.1087992</v>
+        <v>0.106623216</v>
       </c>
       <c r="R17">
-        <v>1.186107374648984E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.01186107374648984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1158,34 +1106,34 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>9.4196735035717897E-4</v>
+        <v>0.000941967350357179</v>
       </c>
       <c r="H18">
         <v>3450</v>
       </c>
       <c r="I18">
-        <v>2.8468137262494659E-2</v>
+        <v>0.02789877451724477</v>
       </c>
       <c r="J18">
-        <v>4.5104032398488089E-3</v>
+        <v>0.004510403239848808</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18">
-        <v>1.9499999999999999E-3</v>
+        <v>0.00195</v>
       </c>
       <c r="P18">
         <v>3450</v>
       </c>
       <c r="Q18">
-        <v>5.8932900000000003E-2</v>
+        <v>0.057754242</v>
       </c>
       <c r="R18">
-        <v>6.4247482793486658E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.006424748279348667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1196,34 +1144,34 @@
         <v>17</v>
       </c>
       <c r="G19">
-        <v>4.5974388626447092E-4</v>
+        <v>0.0004597438862644709</v>
       </c>
       <c r="H19">
         <v>3450</v>
       </c>
       <c r="I19">
-        <v>1.3894379730684841E-2</v>
+        <v>0.01361649213607114</v>
       </c>
       <c r="J19">
-        <v>2.201382365664441E-3</v>
+        <v>0.002201382365664441</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
       <c r="O19">
-        <v>1.25E-3</v>
+        <v>0.00125</v>
       </c>
       <c r="P19">
         <v>3450</v>
       </c>
       <c r="Q19">
-        <v>3.7777499999999999E-2</v>
+        <v>0.03702195</v>
       </c>
       <c r="R19">
-        <v>4.1184283841978623E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.004118428384197862</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1234,34 +1182,34 @@
         <v>18</v>
       </c>
       <c r="G20">
-        <v>2.157712877713109E-4</v>
+        <v>0.0002157712877713109</v>
       </c>
       <c r="H20">
         <v>3450</v>
       </c>
       <c r="I20">
-        <v>6.5210398590245583E-3</v>
+        <v>0.006390619061844067</v>
       </c>
       <c r="J20">
-        <v>1.033173299542752E-3</v>
+        <v>0.001033173299542752</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
       <c r="O20">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="P20">
         <v>3450</v>
       </c>
       <c r="Q20">
-        <v>1.8133199999999999E-2</v>
+        <v>0.017770536</v>
       </c>
       <c r="R20">
-        <v>1.9768456244149738E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.001976845624414974</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1272,34 +1220,34 @@
         <v>19</v>
       </c>
       <c r="G21">
-        <v>9.7451019480056077E-5</v>
+        <v>9.745101948005608E-05</v>
       </c>
       <c r="H21">
         <v>3450</v>
       </c>
       <c r="I21">
-        <v>2.9451647107262549E-3</v>
+        <v>0.00288626141651173</v>
       </c>
       <c r="J21">
-        <v>4.6662274846654339E-4</v>
+        <v>0.0004666227484665434</v>
       </c>
       <c r="N21">
         <v>19</v>
       </c>
       <c r="O21">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="P21">
         <v>3450</v>
       </c>
       <c r="Q21">
-        <v>6.0443999999999993E-3</v>
+        <v>0.005923511999999999</v>
       </c>
       <c r="R21">
-        <v>6.58948541471658E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.0006589485414716579</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1310,34 +1258,34 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>4.2381811494188408E-5</v>
+        <v>4.238181149418841E-05</v>
       </c>
       <c r="H22">
         <v>3450</v>
       </c>
       <c r="I22">
-        <v>1.280863106977362E-3</v>
+        <v>0.001255245844837815</v>
       </c>
       <c r="J22">
-        <v>2.029359720393329E-4</v>
+        <v>0.0002029359720393328</v>
       </c>
       <c r="N22">
         <v>20</v>
       </c>
       <c r="O22">
-        <v>6.9042180000000006E-5</v>
+        <v>6.904218000000001E-05</v>
       </c>
       <c r="P22">
         <v>3450</v>
       </c>
       <c r="Q22">
-        <v>2.0865927639599998E-3</v>
+        <v>0.0020448609086808</v>
       </c>
       <c r="R22">
-        <v>2.2747621905511839E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+        <v>0.0002274762190551184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1348,34 +1296,34 @@
         <v>21</v>
       </c>
       <c r="G23">
-        <v>1.775953297055837E-5</v>
+        <v>1.775953297055837E-05</v>
       </c>
       <c r="H23">
         <v>3450</v>
       </c>
       <c r="I23">
-        <v>5.3672860543621493E-4</v>
+        <v>0.0005259940333274906</v>
       </c>
       <c r="J23">
-        <v>8.5037613053397807E-5</v>
+        <v>8.503761305339781E-05</v>
       </c>
       <c r="N23">
         <v>21</v>
       </c>
       <c r="O23">
-        <v>2.8563269999999999E-5</v>
+        <v>2.856327E-05</v>
       </c>
       <c r="P23">
         <v>3450</v>
       </c>
       <c r="Q23">
-        <v>8.6323914594000012E-4</v>
+        <v>0.0008459743630212001</v>
       </c>
       <c r="R23">
-        <v>9.4108625530805838E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+        <v>9.410862553080584E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1386,34 +1334,34 @@
         <v>22</v>
       </c>
       <c r="G24">
-        <v>7.1742788610306172E-6</v>
+        <v>7.174278861030617E-06</v>
       </c>
       <c r="H24">
         <v>3450</v>
       </c>
       <c r="I24">
-        <v>2.1682105573806731E-4</v>
+        <v>0.000212484634623306</v>
       </c>
       <c r="J24">
-        <v>3.435245457934539E-5</v>
+        <v>3.435245457934538E-05</v>
       </c>
       <c r="N24">
         <v>22</v>
       </c>
       <c r="O24">
-        <v>9.5210900000000003E-6</v>
+        <v>9.52109E-06</v>
       </c>
       <c r="P24">
         <v>3450</v>
       </c>
       <c r="Q24">
-        <v>2.8774638198E-4</v>
+        <v>0.0002819914543404</v>
       </c>
       <c r="R24">
-        <v>3.1369541843601953E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3.136954184360194E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25">
         <v>23</v>
       </c>
@@ -1424,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="G25">
-        <v>2.7953490187183639E-6</v>
+        <v>2.795349018718364E-06</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1451,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18">
       <c r="B26">
         <v>24</v>
       </c>
@@ -1462,7 +1410,7 @@
         <v>24</v>
       </c>
       <c r="G26">
-        <v>1.0510044530931729E-6</v>
+        <v>1.051004453093173E-06</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1489,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1500,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="G27">
-        <v>3.8147748367696411E-7</v>
+        <v>3.814774836769641E-07</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1527,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18">
       <c r="B28">
         <v>26</v>
       </c>
@@ -1538,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="G28">
-        <v>1.3372156959903921E-7</v>
+        <v>1.337215695990392E-07</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1565,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29">
         <v>27</v>
       </c>
@@ -1576,7 +1524,7 @@
         <v>27</v>
       </c>
       <c r="G29">
-        <v>4.5285936512228443E-8</v>
+        <v>4.528593651222844E-08</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1603,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30">
         <v>28</v>
       </c>
@@ -1614,7 +1562,7 @@
         <v>28</v>
       </c>
       <c r="G30">
-        <v>1.482196310490126E-8</v>
+        <v>1.482196310490126E-08</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1641,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="B31">
         <v>29</v>
       </c>
@@ -1652,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="G31">
-        <v>4.6899784141900748E-9</v>
+        <v>4.689978414190075E-09</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1679,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="B32">
         <v>30</v>
       </c>
@@ -1690,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>1.43513570910291E-9</v>
+        <v>1.43513570910291E-09</v>
       </c>
       <c r="H32">
         <v>0</v>
